--- a/Project Model_Fast Prod_No Equal Demand.xlsx
+++ b/Project Model_Fast Prod_No Equal Demand.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
   <si>
     <t xml:space="preserve">Demand</t>
   </si>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Energy Costs</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Unit Emissions</t>
+    <t xml:space="preserve">Emissions Per Hour</t>
   </si>
   <si>
     <t xml:space="preserve">Unit Production</t>
@@ -157,7 +157,13 @@
     <t xml:space="preserve">yi</t>
   </si>
   <si>
+    <t xml:space="preserve">Weight 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight 2</t>
   </si>
   <si>
     <t xml:space="preserve">Total Cost</t>
@@ -854,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:AC416"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B102" activeCellId="0" sqref="B102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2521,23 +2527,23 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="n">
-        <f aca="false">F47</f>
-        <v>0.15</v>
+        <f aca="false">F47/B50</f>
+        <v>0.0166666666666667</v>
       </c>
       <c r="C83" s="0" t="n">
-        <f aca="false">F67</f>
-        <v>0.164383561643836</v>
+        <f aca="false">F67/B70</f>
+        <v>0.0074719800747198</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F83" s="0" t="n">
-        <f aca="false">D50</f>
-        <v>0.00911111111111111</v>
+        <f aca="false">B47*D47+B48*D48+B49*D49</f>
+        <v>0.082</v>
       </c>
       <c r="G83" s="0" t="n">
-        <f aca="false">D70</f>
-        <v>0.00945454545454546</v>
+        <f aca="false">B67*D67+B68*D68+B69*D69</f>
+        <v>0.208</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,23 +2551,23 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="n">
-        <f aca="false">F52</f>
-        <v>0.18</v>
+        <f aca="false">F52/B55</f>
+        <v>0.0225</v>
       </c>
       <c r="C84" s="0" t="n">
-        <f aca="false">F72</f>
-        <v>0.197027027027027</v>
+        <f aca="false">F72/B75</f>
+        <v>0.00938223938223938</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F84" s="0" t="n">
-        <f aca="false">D55</f>
-        <v>0.007375</v>
+        <f aca="false">B52*D52+B53*D53+B54*D54</f>
+        <v>0.059</v>
       </c>
       <c r="G84" s="0" t="n">
-        <f aca="false">D75</f>
-        <v>0.00880952380952381</v>
+        <f aca="false">B72*D72+B73*D73+B74*D74</f>
+        <v>0.185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,23 +2575,23 @@
         <v>3</v>
       </c>
       <c r="B85" s="0" t="n">
-        <f aca="false">F57</f>
-        <v>0.09</v>
+        <f aca="false">F57/B60</f>
+        <v>0.012</v>
       </c>
       <c r="C85" s="0" t="n">
-        <f aca="false">F77</f>
-        <v>0.0977483443708609</v>
+        <f aca="false">F77/B80</f>
+        <v>0.00488741721854305</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F85" s="0" t="n">
-        <f aca="false">D60</f>
-        <v>0.0098</v>
+        <f aca="false">B57*D57+B58*D58+B59*D59</f>
+        <v>0.0735</v>
       </c>
       <c r="G85" s="0" t="n">
-        <f aca="false">D80</f>
-        <v>0.0098</v>
+        <f aca="false">B77*D77+B78*D78+B79*D79</f>
+        <v>0.196</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,6 +2714,9 @@
       <c r="A95" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="F95" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -2717,6 +2726,37 @@
         <f aca="false" t="array" ref="B96:B98">TRANSPOSE(N108:P108)</f>
         <v>1</v>
       </c>
+      <c r="F96" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <f aca="false">F96</f>
+        <v>0.9</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <f aca="false">G96</f>
+        <v>0.9</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <f aca="false">H96</f>
+        <v>0.9</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <f aca="false">I96</f>
+        <v>0.9</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <f aca="false">J96</f>
+        <v>0.9</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">K96</f>
+        <v>0.9</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <f aca="false">L96</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -2725,6 +2765,38 @@
       <c r="B97" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="F97" s="0" t="n">
+        <f aca="false">F96</f>
+        <v>0.9</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <f aca="false">F97</f>
+        <v>0.9</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <f aca="false">G97</f>
+        <v>0.9</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <f aca="false">H97</f>
+        <v>0.9</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <f aca="false">I97</f>
+        <v>0.9</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <f aca="false">J97</f>
+        <v>0.9</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">K97</f>
+        <v>0.9</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <f aca="false">L97</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -2733,43 +2805,104 @@
       <c r="B98" s="21" t="n">
         <v>1</v>
       </c>
+      <c r="F98" s="0" t="n">
+        <f aca="false">F97</f>
+        <v>0.9</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">F98</f>
+        <v>0.9</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <f aca="false">G98</f>
+        <v>0.9</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <f aca="false">H98</f>
+        <v>0.9</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <f aca="false">I98</f>
+        <v>0.9</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <f aca="false">J98</f>
+        <v>0.9</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">K98</f>
+        <v>0.9</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <f aca="false">L98</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" s="22" t="n">
         <f aca="false">B123+B149+B175+B201+B227+B253+B279+B305+B331+B357+B383+B409</f>
-        <v>18488.462018543</v>
+        <v>18262.3456609271</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <f aca="false">MMULT(TRANSPOSE($F$96:$M$98),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT($F$96:$M$98,$B$39:$I$41)</f>
+        <v>13.910383473008</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <f aca="false">1-F96</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B102" s="22" t="n">
         <f aca="false">B124+B150+B176+B202+B228+B254+B280+B306+B332+B358+B384+B410</f>
-        <v>23.863</v>
+        <v>173.238649350649</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">SUMPRODUCT($F$101:$F$103/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT($F$101:$F$103/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>0.00280640692640693</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <f aca="false">F101</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0" t="n">
+        <f aca="false">(D101+D102)*SUM(N109:U144)</f>
+        <v>261707.101641565</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <f aca="false">F102</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>1</v>
@@ -2799,7 +2932,7 @@
         <v>3</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N108" s="0" t="n">
         <v>1</v>
@@ -2884,7 +3017,7 @@
         <v>350</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false" t="array" ref="L109:L111">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -2972,7 +3105,7 @@
         <v>775</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L110" s="0" t="n">
         <v>3360</v>
@@ -3059,7 +3192,7 @@
         <v>300</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L111" s="32" t="n">
         <v>3200</v>
@@ -3204,31 +3337,31 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N113" s="26" t="n">
         <v>0</v>
@@ -3309,6 +3442,10 @@
         <f aca="false">J3</f>
         <v>1425</v>
       </c>
+      <c r="L114" s="0" t="n">
+        <f aca="false">J114/3</f>
+        <v>475</v>
+      </c>
       <c r="N114" s="29" t="n">
         <v>150</v>
       </c>
@@ -3410,7 +3547,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N116" s="26" t="n">
         <v>0</v>
@@ -3463,7 +3600,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1</v>
@@ -3822,7 +3959,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N122" s="26" t="n">
         <v>0</v>
@@ -3875,11 +4012,11 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B123" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B109:I111),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B118:I120,$B$32:$I$34)+1.2*SUMPRODUCT(B109:I111,$B$39:$I$41)</f>
-        <v>1399.19766887417</v>
+        <v>1380.62548344371</v>
       </c>
       <c r="N123" s="29" t="n">
         <v>250</v>
@@ -3932,11 +4069,11 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B124" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B109:I111),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J109:J111/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J109:J111/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.0764718614719</v>
       </c>
       <c r="N124" s="23" t="n">
         <v>0</v>
@@ -4039,7 +4176,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N126" s="29" t="n">
         <v>180</v>
@@ -4448,7 +4585,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N132" s="29" t="n">
         <v>200</v>
@@ -4501,7 +4638,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N133" s="23" t="n">
         <v>0</v>
@@ -4554,7 +4691,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1</v>
@@ -4666,7 +4803,7 @@
         <v>375</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false" t="array" ref="L135:L137">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -4754,7 +4891,7 @@
         <v>825</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L136" s="0" t="n">
         <v>3360</v>
@@ -4841,7 +4978,7 @@
         <v>275</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L137" s="32" t="n">
         <v>3200</v>
@@ -4986,31 +5123,31 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N139" s="23" t="n">
         <v>0</v>
@@ -5091,6 +5228,10 @@
         <f aca="false">J4</f>
         <v>1475</v>
       </c>
+      <c r="L140" s="0" t="n">
+        <f aca="false">J140/3</f>
+        <v>491.666666666667</v>
+      </c>
       <c r="N140" s="26" t="n">
         <v>0</v>
       </c>
@@ -5192,7 +5333,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N142" s="23" t="n">
         <v>0</v>
@@ -5245,7 +5386,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>1</v>
@@ -5458,30 +5599,30 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B149" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B135:I137),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B144:I146,$B$32:$I$34)+1.2*SUMPRODUCT(B135:I137,$B$39:$I$41)</f>
-        <v>1446.40625165563</v>
+        <v>1432.47711258278</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B150" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B135:I137),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J135:J137/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J135:J137/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.5083116883117</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,17 +5741,17 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1</v>
@@ -5674,7 +5815,7 @@
         <v>450</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L161" s="0" t="n">
         <f aca="false" t="array" ref="L161:L163">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -5714,7 +5855,7 @@
         <v>700</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L162" s="0" t="n">
         <v>3360</v>
@@ -5753,7 +5894,7 @@
         <v>375</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L163" s="32" t="n">
         <v>3200</v>
@@ -5802,31 +5943,31 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,15 +5999,19 @@
       <c r="J166" s="0" t="n">
         <v>1525</v>
       </c>
+      <c r="L166" s="0" t="n">
+        <f aca="false">J166/3</f>
+        <v>508.333333333333</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>1</v>
@@ -5983,30 +6128,30 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B175" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B161:I163),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B170:I172,$B$32:$I$34)+1.2*SUMPRODUCT(B161:I163,$B$39:$I$41)</f>
-        <v>1455.59337748344</v>
+        <v>1434.69966887417</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B176" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B161:I163),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.205</v>
+        <f aca="false">SUMPRODUCT(J161:J163/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J161:J163/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>14.0962121212121</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,17 +6270,17 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>1</v>
@@ -6199,7 +6344,7 @@
         <v>475</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L187" s="0" t="n">
         <f aca="false" t="array" ref="L187:L189">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -6239,7 +6384,7 @@
         <v>650</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L188" s="0" t="n">
         <v>3360</v>
@@ -6278,7 +6423,7 @@
         <v>450</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L189" s="32" t="n">
         <v>3200</v>
@@ -6327,31 +6472,31 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,15 +6528,19 @@
       <c r="J192" s="0" t="n">
         <v>1575</v>
       </c>
+      <c r="L192" s="0" t="n">
+        <f aca="false">J192/3</f>
+        <v>525</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>1</v>
@@ -6508,30 +6657,30 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B201" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B187:I189),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B196:I198,$B$32:$I$34)+1.2*SUMPRODUCT(B187:I189,$B$39:$I$41)</f>
-        <v>1526.26108609272</v>
+        <v>1503.04585430464</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B202" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B187:I189),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.45</v>
+        <f aca="false">SUMPRODUCT(J187:J189/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J187:J189/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>14.6270995670996</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6650,17 +6799,17 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>1</v>
@@ -6724,7 +6873,7 @@
         <v>450</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L213" s="0" t="n">
         <f aca="false" t="array" ref="L213:L215">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -6764,7 +6913,7 @@
         <v>575</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L214" s="0" t="n">
         <v>3360</v>
@@ -6803,7 +6952,7 @@
         <v>425</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L215" s="32" t="n">
         <v>3200</v>
@@ -6852,31 +7001,31 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,15 +7057,19 @@
       <c r="J218" s="0" t="n">
         <v>1450</v>
       </c>
+      <c r="L218" s="0" t="n">
+        <f aca="false">J218/3</f>
+        <v>483.333333333333</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>1</v>
@@ -7033,30 +7186,30 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B227" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B213:I215),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B222:I224,$B$32:$I$34)+1.2*SUMPRODUCT(B213:I215,$B$39:$I$41)</f>
-        <v>1478.77308609272</v>
+        <v>1455.55785430464</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B228" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B213:I215),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.45</v>
+        <f aca="false">SUMPRODUCT(J213:J215/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J213:J215/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.4850216450216</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,17 +7328,17 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>1</v>
@@ -7249,7 +7402,7 @@
         <v>325</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L239" s="0" t="n">
         <f aca="false" t="array" ref="L239:L241">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -7289,7 +7442,7 @@
         <v>800</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L240" s="0" t="n">
         <v>3360</v>
@@ -7328,7 +7481,7 @@
         <v>355</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L241" s="32" t="n">
         <v>3200</v>
@@ -7377,31 +7530,31 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7433,15 +7586,19 @@
       <c r="J244" s="0" t="n">
         <v>1480</v>
       </c>
+      <c r="L244" s="0" t="n">
+        <f aca="false">J244/3</f>
+        <v>493.333333333333</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>1</v>
@@ -7558,30 +7715,30 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B253" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B239:I241),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B248:I250,$B$32:$I$34)+1.2*SUMPRODUCT(B239:I241,$B$39:$I$41)</f>
-        <v>1484.12910198675</v>
+        <v>1467.41413509934</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B254" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B239:I241),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.764</v>
+        <f aca="false">SUMPRODUCT(J239:J241/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J239:J241/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.5993463203463</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,17 +7857,17 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>1</v>
@@ -7774,7 +7931,7 @@
         <v>425</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L265" s="0" t="n">
         <f aca="false" t="array" ref="L265:L267">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -7814,7 +7971,7 @@
         <v>625</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L266" s="0" t="n">
         <v>3360</v>
@@ -7853,7 +8010,7 @@
         <v>380</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L267" s="32" t="n">
         <v>3200</v>
@@ -7902,31 +8059,31 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7958,15 +8115,19 @@
       <c r="J270" s="0" t="n">
         <v>1430</v>
       </c>
+      <c r="L270" s="0" t="n">
+        <f aca="false">J270/3</f>
+        <v>476.666666666667</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>1</v>
@@ -8083,30 +8244,30 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B279" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B265:I267),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B274:I276,$B$32:$I$34)+1.2*SUMPRODUCT(B265:I267,$B$39:$I$41)</f>
-        <v>1483.61710198675</v>
+        <v>1466.90213509934</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B280" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B265:I267),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.764</v>
+        <f aca="false">SUMPRODUCT(J265:J267/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J265:J267/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.2481341991342</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8225,17 +8386,17 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>1</v>
@@ -8299,7 +8460,7 @@
         <v>450</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L291" s="0" t="n">
         <f aca="false" t="array" ref="L291:L293">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -8339,7 +8500,7 @@
         <v>700</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L292" s="0" t="n">
         <v>3360</v>
@@ -8378,7 +8539,7 @@
         <v>350</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L293" s="32" t="n">
         <v>3200</v>
@@ -8427,31 +8588,31 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,15 +8644,19 @@
       <c r="J296" s="0" t="n">
         <v>1500</v>
       </c>
+      <c r="L296" s="0" t="n">
+        <f aca="false">J296/3</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>1</v>
@@ -8608,30 +8773,30 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B305" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B291:I293),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B300:I302,$B$32:$I$34)+1.2*SUMPRODUCT(B291:I293,$B$39:$I$41)</f>
-        <v>1581.78966887417</v>
+        <v>1563.21748344371</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B306" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B291:I293),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J291:J293/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J291:J293/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.8512121212121</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,17 +8915,17 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>1</v>
@@ -8824,7 +8989,7 @@
         <v>325</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L317" s="0" t="n">
         <f aca="false" t="array" ref="L317:L319">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -8864,7 +9029,7 @@
         <v>725</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L318" s="0" t="n">
         <v>3360</v>
@@ -8903,7 +9068,7 @@
         <v>250</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L319" s="32" t="n">
         <v>3200</v>
@@ -8952,31 +9117,31 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9008,15 +9173,19 @@
       <c r="J322" s="0" t="n">
         <v>1300</v>
       </c>
+      <c r="L322" s="0" t="n">
+        <f aca="false">J322/3</f>
+        <v>433.333333333333</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1</v>
@@ -9133,30 +9302,30 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B331" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B317:I319),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B326:I328,$B$32:$I$34)+1.2*SUMPRODUCT(B317:I319,$B$39:$I$41)</f>
-        <v>1438.02225165563</v>
+        <v>1424.09311258278</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B332" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B317:I319),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J317:J319/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J317:J319/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>11.909632034632</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9275,17 +9444,17 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1</v>
@@ -9349,7 +9518,7 @@
         <v>375</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L343" s="0" t="n">
         <f aca="false" t="array" ref="L343:L345">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -9389,7 +9558,7 @@
         <v>850</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L344" s="0" t="n">
         <v>3360</v>
@@ -9428,7 +9597,7 @@
         <v>250</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L345" s="32" t="n">
         <v>3200</v>
@@ -9477,31 +9646,31 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9533,15 +9702,19 @@
       <c r="J348" s="0" t="n">
         <v>1475</v>
       </c>
+      <c r="L348" s="0" t="n">
+        <f aca="false">J348/3</f>
+        <v>491.666666666667</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1</v>
@@ -9658,30 +9831,30 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B357" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B343:I345),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B352:I354,$B$32:$I$34)+1.2*SUMPRODUCT(B343:I345,$B$39:$I$41)</f>
-        <v>1440.00625165563</v>
+        <v>1426.07711258278</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B358" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B343:I345),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.47</v>
+        <f aca="false">SUMPRODUCT(J343:J345/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J343:J345/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>13.4835497835498</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9800,17 +9973,17 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1</v>
@@ -9874,7 +10047,7 @@
         <v>550</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L369" s="0" t="n">
         <f aca="false" t="array" ref="L369:L371">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -9914,7 +10087,7 @@
         <v>1050</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L370" s="0" t="n">
         <v>3360</v>
@@ -9953,7 +10126,7 @@
         <v>275</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L371" s="32" t="n">
         <v>3200</v>
@@ -10002,31 +10175,31 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J373" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10058,15 +10231,19 @@
       <c r="J374" s="0" t="n">
         <v>1875</v>
       </c>
+      <c r="L374" s="0" t="n">
+        <f aca="false">J374/3</f>
+        <v>625</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1</v>
@@ -10183,30 +10360,30 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B383" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B369:I371),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B378:I380,$B$32:$I$34)+1.2*SUMPRODUCT(B369:I371,$B$39:$I$41)</f>
-        <v>1685.02166887417</v>
+        <v>1666.44948344371</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B384" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B369:I371),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>1.96</v>
+        <f aca="false">SUMPRODUCT(J369:J371/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J369:J371/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>17.145</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10325,17 +10502,17 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1</v>
@@ -10399,7 +10576,7 @@
         <v>700</v>
       </c>
       <c r="K395" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L395" s="0" t="n">
         <f aca="false" t="array" ref="L395:L397">$F$89:$F$91*(1-$B$96:$B$98)+$G$89:$G$91*$B$96:$B$98</f>
@@ -10439,7 +10616,7 @@
         <v>1100</v>
       </c>
       <c r="K396" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L396" s="0" t="n">
         <v>3360</v>
@@ -10478,7 +10655,7 @@
         <v>500</v>
       </c>
       <c r="K397" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L397" s="32" t="n">
         <v>3200</v>
@@ -10527,31 +10704,31 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J399" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10583,15 +10760,19 @@
       <c r="J400" s="0" t="n">
         <v>2300</v>
       </c>
+      <c r="L400" s="0" t="n">
+        <f aca="false">J400/3</f>
+        <v>766.666666666667</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1</v>
@@ -10708,30 +10889,30 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B409" s="0" t="n">
         <f aca="false">MMULT(TRANSPOSE(B395:I397),$B$83:$B$85*(1-$B$96:$B$98)+$C$83:$C$85*$B$96:$B$98)+1.2*SUMPRODUCT(B404:I406,$B$32:$I$34)+1.2*SUMPRODUCT(B395:I397,$B$39:$I$41)</f>
-        <v>2069.64450331126</v>
+        <v>2041.78622516556</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B410" s="0" t="n">
-        <f aca="false">MMULT(TRANSPOSE(B395:I397),(1-$B$96:$B$98)*$F$83:$F$85+$B$96:$B$98*$G$83:$G$85)</f>
-        <v>2.94</v>
+        <f aca="false">SUMPRODUCT(J395:J397/$B$89:$B$91,(1-$B$96:$B$98)*$F$83:$F$85)+SUMPRODUCT(J395:J397/$C$89:$C$91,$B$96:$B$98*$G$83:$G$85)</f>
+        <v>21.208658008658</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
